--- a/diurenmw/Excels/TutorialList_新手引导流程表.xlsx
+++ b/diurenmw/Excels/TutorialList_新手引导流程表.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -22,22 +29,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t xml:space="preserve">int</t>
+    <t>int</t>
   </si>
   <si>
-    <t xml:space="preserve">string</t>
+    <t>string</t>
   </si>
   <si>
-    <t xml:space="preserve">int[]</t>
+    <t>int[]</t>
   </si>
   <si>
-    <t xml:space="preserve">id</t>
+    <t>id</t>
   </si>
   <si>
-    <t xml:space="preserve">desc</t>
+    <t>desc</t>
   </si>
   <si>
-    <t xml:space="preserve">step</t>
+    <t>step</t>
   </si>
   <si>
     <r>
@@ -45,24 +52,22 @@
         <sz val="9.75"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">流程主</t>
+      <t>流程主</t>
     </r>
     <r>
       <rPr>
         <sz val="9.75"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">id</t>
+      <t>id</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">描述</t>
+    <t>描述</t>
   </si>
   <si>
     <r>
@@ -70,30 +75,27 @@
         <sz val="9.75"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">引导步骤（对应新手引导类型表</t>
+      <t>引导步骤（对应新手引导类型表</t>
     </r>
     <r>
       <rPr>
         <sz val="9.75"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">id</t>
+      <t>id</t>
     </r>
     <r>
       <rPr>
         <sz val="9.75"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">）</t>
+      <t>）</t>
     </r>
   </si>
   <si>
@@ -102,202 +104,1237 @@
         <sz val="9.75"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">初学者手册开始</t>
+      <t>初学者手册开始</t>
     </r>
     <r>
       <rPr>
         <sz val="9.75"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">-</t>
+      <t>-</t>
     </r>
     <r>
       <rPr>
         <sz val="9.75"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">进入宠物引导</t>
+      <t>进入宠物引导</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">5001|61000|5002|5003|5004</t>
+    <t>5001|61000|5002|5003|5004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="9">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0625" defaultRowHeight="19" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0666666666667" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="69.99"/>
+    <col min="2" max="2" width="48.3916666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="69.9916666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -308,7 +1345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -319,7 +1356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -330,13 +1367,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" ht="19" customHeight="1" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -346,123 +1383,119 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" ht="19" customHeight="1" spans="1:3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" ht="19" customHeight="1" spans="1:3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" ht="19" customHeight="1" spans="1:3">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" ht="19" customHeight="1" spans="1:2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" ht="19" customHeight="1" spans="1:2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" ht="19" customHeight="1" spans="1:2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" ht="19" customHeight="1" spans="1:3">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:3">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" ht="19" customHeight="1" spans="1:3">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:3">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:3">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:3">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:3">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:3">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:3">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:3">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:1">
       <c r="A28" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>